--- a/data/ev_data.xlsx
+++ b/data/ev_data.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PowerSystem\MATLAB Drive\EV_Battery_local_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PowerSystem\MATLAB Drive\BatteryOptimizeLocalArea\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE926A-88B0-4D5E-8E44-85CEA85FA96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Day</t>
   </si>
@@ -207,11 +217,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>車両台数</t>
+    <rPh sb="0" eb="4">
+      <t>シャリョウダイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,40 +645,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -682,15 +669,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,14 +681,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,7 +747,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -927,6 +944,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7F6-491F-8BA8-888811A31232}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1653,19 +1675,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>175847</xdr:colOff>
+      <xdr:colOff>1106366</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>64477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>1091712</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>140677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1945,19 +1973,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AX59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF41" sqref="X36:AF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="9" collapsed="1"/>
-    <col min="23" max="40" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="9" collapsed="1"/>
+    <col min="23" max="40" width="9" customWidth="1" outlineLevel="1"/>
     <col min="44" max="44" width="14.75" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="24.25" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.75" bestFit="1" customWidth="1"/>
@@ -1989,55 +2016,55 @@
     </row>
     <row r="2" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="28"/>
       <c r="AV2" s="8" t="s">
         <v>21</v>
       </c>
@@ -2050,117 +2077,117 @@
     </row>
     <row r="3" spans="1:50" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="25">
+      <c r="C3" s="30"/>
+      <c r="D3" s="33">
         <v>4</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="35">
         <v>10</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="35">
         <v>20</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="35">
         <v>40</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="35">
         <v>60</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="35">
         <v>80</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="35">
         <v>100</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="35">
         <v>140</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="44">
         <v>200</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="39">
         <v>4</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="37">
         <v>10</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="37">
         <v>20</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="37">
         <v>40</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="37">
         <v>60</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="37">
         <v>80</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="37">
         <v>100</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="37">
         <v>140</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="42">
         <v>200</v>
       </c>
       <c r="V3" s="1"/>
-      <c r="W3" s="25">
+      <c r="W3" s="33">
         <v>4</v>
       </c>
-      <c r="X3" s="27">
+      <c r="X3" s="35">
         <v>10</v>
       </c>
-      <c r="Y3" s="27">
+      <c r="Y3" s="35">
         <v>20</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Z3" s="35">
         <v>40</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AA3" s="35">
         <v>60</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="35">
         <v>80</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="35">
         <v>100</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AD3" s="35">
         <v>140</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AE3" s="44">
         <v>200</v>
       </c>
-      <c r="AF3" s="31">
+      <c r="AF3" s="39">
         <v>4</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AG3" s="37">
         <v>10</v>
       </c>
-      <c r="AH3" s="21">
+      <c r="AH3" s="37">
         <v>20</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AI3" s="37">
         <v>40</v>
       </c>
-      <c r="AJ3" s="21">
+      <c r="AJ3" s="37">
         <v>60</v>
       </c>
-      <c r="AK3" s="21">
+      <c r="AK3" s="37">
         <v>80</v>
       </c>
-      <c r="AL3" s="21">
+      <c r="AL3" s="37">
         <v>100</v>
       </c>
-      <c r="AM3" s="21">
+      <c r="AM3" s="37">
         <v>140</v>
       </c>
-      <c r="AN3" s="23">
+      <c r="AN3" s="42">
         <v>200</v>
       </c>
       <c r="AV3" s="8" t="s">
@@ -2173,47 +2200,47 @@
     </row>
     <row r="4" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="24"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="24"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="43"/>
       <c r="AV4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2224,132 +2251,132 @@
     </row>
     <row r="5" spans="1:50" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="25">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33">
         <v>0.5</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="35">
         <v>1.25</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="35">
         <v>2.5</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="35">
         <v>5</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="35">
         <v>7.5</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="35">
         <v>10</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="35">
         <v>12.5</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="35">
         <v>17.5</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="44">
         <v>25</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="39">
         <v>0.5</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="37">
         <v>1.25</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="37">
         <v>2.5</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="37">
         <v>5</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="37">
         <v>7.5</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="37">
         <v>10</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="37">
         <v>12.5</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="37">
         <v>17.5</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="42">
         <v>25</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="25">
+      <c r="W5" s="33">
         <v>0.5</v>
       </c>
-      <c r="X5" s="27">
+      <c r="X5" s="35">
         <v>1.25</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="Y5" s="35">
         <v>2.5</v>
       </c>
-      <c r="Z5" s="27">
+      <c r="Z5" s="35">
         <v>5</v>
       </c>
-      <c r="AA5" s="27">
+      <c r="AA5" s="35">
         <v>7.5</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="35">
         <v>10</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AC5" s="35">
         <v>12.5</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="35">
         <v>17.5</v>
       </c>
-      <c r="AE5" s="29">
+      <c r="AE5" s="44">
         <v>25</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AF5" s="39">
         <v>0.5</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AG5" s="37">
         <v>1.25</v>
       </c>
-      <c r="AH5" s="21">
+      <c r="AH5" s="37">
         <v>2.5</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="AI5" s="37">
         <v>5</v>
       </c>
-      <c r="AJ5" s="21">
+      <c r="AJ5" s="37">
         <v>7.5</v>
       </c>
-      <c r="AK5" s="21">
+      <c r="AK5" s="37">
         <v>10</v>
       </c>
-      <c r="AL5" s="21">
+      <c r="AL5" s="37">
         <v>12.5</v>
       </c>
-      <c r="AM5" s="21">
+      <c r="AM5" s="37">
         <v>17.5</v>
       </c>
-      <c r="AN5" s="23">
+      <c r="AN5" s="42">
         <v>25</v>
       </c>
-      <c r="AO5" s="46" t="s">
+      <c r="AO5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="46" t="s">
+      <c r="AP5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AQ5" s="46" t="s">
+      <c r="AQ5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AR5" s="46" t="s">
+      <c r="AR5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AT5" s="46" t="s">
+      <c r="AT5" s="41" t="s">
         <v>17</v>
       </c>
       <c r="AV5" s="8" t="s">
@@ -2361,55 +2388,55 @@
     </row>
     <row r="6" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="24"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="43"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
       <c r="AS6" t="s">
         <v>24</v>
       </c>
-      <c r="AT6" s="46"/>
+      <c r="AT6" s="41"/>
       <c r="AU6" t="s">
         <v>23</v>
       </c>
@@ -2423,7 +2450,7 @@
     </row>
     <row r="7" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2">
@@ -2576,7 +2603,7 @@
         <v>6</v>
       </c>
       <c r="AT7" s="18">
-        <f>AR13</f>
+        <f t="shared" ref="AT7:AT24" si="6">AR13</f>
         <v>0.17987376995585186</v>
       </c>
       <c r="AU7">
@@ -2592,7 +2619,7 @@
     </row>
     <row r="8" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2">
         <v>1</v>
       </c>
@@ -2652,55 +2679,55 @@
       </c>
       <c r="V8" s="1"/>
       <c r="W8">
-        <f t="shared" ref="W8:W30" si="6">D8*$D$5</f>
+        <f t="shared" ref="W8:W30" si="7">D8*$D$5</f>
         <v>2.65</v>
       </c>
       <c r="X8">
-        <f t="shared" ref="X8:X30" si="7">E8*$D$5</f>
+        <f t="shared" ref="X8:X30" si="8">E8*$D$5</f>
         <v>3.9</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y8:Y30" si="8">F8*$D$5</f>
+        <f t="shared" ref="Y8:Y30" si="9">F8*$D$5</f>
         <v>4.95</v>
       </c>
       <c r="Z8">
-        <f t="shared" ref="Z8:Z30" si="9">G8*$D$5</f>
+        <f t="shared" ref="Z8:Z30" si="10">G8*$D$5</f>
         <v>3.95</v>
       </c>
       <c r="AA8">
-        <f t="shared" ref="AA8:AA30" si="10">H8*$D$5</f>
+        <f t="shared" ref="AA8:AA30" si="11">H8*$D$5</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="AB8">
-        <f t="shared" ref="AB8:AB30" si="11">I8*$D$5</f>
+        <f t="shared" ref="AB8:AB30" si="12">I8*$D$5</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="AC8">
-        <f t="shared" ref="AC8:AC30" si="12">J8*$D$5</f>
+        <f t="shared" ref="AC8:AC30" si="13">J8*$D$5</f>
         <v>0.75</v>
       </c>
       <c r="AD8">
-        <f t="shared" ref="AD8:AD30" si="13">K8*$D$5</f>
+        <f t="shared" ref="AD8:AD30" si="14">K8*$D$5</f>
         <v>0.8</v>
       </c>
       <c r="AE8">
-        <f t="shared" ref="AE8:AE30" si="14">L8*$D$5</f>
+        <f t="shared" ref="AE8:AE30" si="15">L8*$D$5</f>
         <v>0.85</v>
       </c>
       <c r="AF8">
-        <f t="shared" ref="AF8:AF30" si="15">M8*$D$5</f>
+        <f t="shared" ref="AF8:AF30" si="16">M8*$D$5</f>
         <v>2.5</v>
       </c>
       <c r="AG8">
-        <f t="shared" ref="AG8:AG30" si="16">N8*$D$5</f>
+        <f t="shared" ref="AG8:AG30" si="17">N8*$D$5</f>
         <v>3.65</v>
       </c>
       <c r="AH8">
-        <f t="shared" ref="AH8:AH30" si="17">O8*$D$5</f>
+        <f t="shared" ref="AH8:AH30" si="18">O8*$D$5</f>
         <v>5.55</v>
       </c>
       <c r="AI8">
-        <f t="shared" ref="AI8:AI30" si="18">P8*$D$5</f>
+        <f t="shared" ref="AI8:AI30" si="19">P8*$D$5</f>
         <v>4.5</v>
       </c>
       <c r="AJ8">
@@ -2708,27 +2735,27 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="AK8">
-        <f t="shared" ref="AK8:AK30" si="19">R8*$D$5</f>
+        <f t="shared" ref="AK8:AK30" si="20">R8*$D$5</f>
         <v>1.3</v>
       </c>
       <c r="AL8">
-        <f t="shared" ref="AL8:AL30" si="20">S8*$D$5</f>
+        <f t="shared" ref="AL8:AL30" si="21">S8*$D$5</f>
         <v>0.9</v>
       </c>
       <c r="AM8">
-        <f t="shared" ref="AM8:AM30" si="21">T8*$D$5</f>
+        <f t="shared" ref="AM8:AM30" si="22">T8*$D$5</f>
         <v>0.85</v>
       </c>
       <c r="AN8">
-        <f t="shared" ref="AN8:AN30" si="22">U8*$D$5</f>
+        <f t="shared" ref="AN8:AN30" si="23">U8*$D$5</f>
         <v>0.9</v>
       </c>
       <c r="AO8" s="8">
-        <f t="shared" ref="AO8:AO30" si="23">SUM(W8:AE8)</f>
+        <f t="shared" ref="AO8:AO30" si="24">SUM(W8:AE8)</f>
         <v>21.000000000000004</v>
       </c>
       <c r="AP8" s="9">
-        <f t="shared" ref="AP8:AP30" si="24">AO8</f>
+        <f t="shared" ref="AP8:AP30" si="25">AO8</f>
         <v>21.000000000000004</v>
       </c>
       <c r="AQ8" s="9">
@@ -2736,14 +2763,14 @@
         <v>0.3672800145746038</v>
       </c>
       <c r="AR8" s="8">
-        <f>AQ8*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" ref="AR7:AR30" si="26">AQ8*($AW$7/SUM($AQ$7:$AQ$30))</f>
         <v>0.19470872005530362</v>
       </c>
       <c r="AS8" s="2">
         <v>7</v>
       </c>
       <c r="AT8" s="18">
-        <f>AR14</f>
+        <f t="shared" si="6"/>
         <v>0.41074268087856902</v>
       </c>
       <c r="AU8">
@@ -2752,7 +2779,7 @@
     </row>
     <row r="9" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="40"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="2">
         <v>2</v>
       </c>
@@ -2812,55 +2839,55 @@
       </c>
       <c r="V9" s="1"/>
       <c r="W9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.95</v>
       </c>
       <c r="X9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.55</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.85</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.45</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="12"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AD9">
         <f t="shared" si="13"/>
         <v>0.55000000000000004</v>
       </c>
+      <c r="AD9">
+        <f t="shared" si="14"/>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="AE9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.7</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.45</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.15</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.35</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.7</v>
       </c>
       <c r="AJ9">
@@ -2868,27 +2895,27 @@
         <v>1.65</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.85</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="20"/>
-        <v>0.65</v>
-      </c>
-      <c r="AM9">
         <f t="shared" si="21"/>
         <v>0.65</v>
       </c>
+      <c r="AM9">
+        <f t="shared" si="22"/>
+        <v>0.65</v>
+      </c>
       <c r="AN9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.7</v>
       </c>
       <c r="AO9" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.249999999999998</v>
       </c>
       <c r="AP9" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.249999999999998</v>
       </c>
       <c r="AQ9" s="9">
@@ -2896,14 +2923,14 @@
         <v>0.26671524867917651</v>
       </c>
       <c r="AR9" s="8">
-        <f>AQ9*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.14139561813539903</v>
       </c>
       <c r="AS9" s="2">
         <v>8</v>
       </c>
       <c r="AT9" s="18">
-        <f>AR15</f>
+        <f t="shared" si="6"/>
         <v>0.68565284990903308</v>
       </c>
       <c r="AU9">
@@ -2914,7 +2941,7 @@
     </row>
     <row r="10" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="2">
         <v>3</v>
       </c>
@@ -2974,55 +3001,55 @@
       </c>
       <c r="V10" s="1"/>
       <c r="W10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="X10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.25</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.65</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.05</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="12"/>
-        <v>0.4</v>
-      </c>
-      <c r="AD10">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
+      <c r="AD10">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
       <c r="AE10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.4</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.95</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.55</v>
       </c>
       <c r="AJ10">
@@ -3030,27 +3057,27 @@
         <v>1</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.45</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AO10" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.400000000000002</v>
       </c>
       <c r="AP10" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>11.400000000000002</v>
       </c>
       <c r="AQ10" s="9">
@@ -3058,14 +3085,14 @@
         <v>0.19938057934049921</v>
       </c>
       <c r="AR10" s="8">
-        <f>AQ10*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.10569901945859339</v>
       </c>
       <c r="AS10" s="2">
         <v>9</v>
       </c>
       <c r="AT10" s="18">
-        <f>AR16</f>
+        <f t="shared" si="6"/>
         <v>0.8312207977599031</v>
       </c>
       <c r="AU10">
@@ -3080,7 +3107,7 @@
     </row>
     <row r="11" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="2">
         <v>4</v>
       </c>
@@ -3140,55 +3167,55 @@
       </c>
       <c r="V11" s="1"/>
       <c r="W11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="X11">
-        <f t="shared" si="7"/>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="Y11">
         <f t="shared" si="8"/>
         <v>2.0499999999999998</v>
       </c>
+      <c r="Y11">
+        <f t="shared" si="9"/>
+        <v>2.0499999999999998</v>
+      </c>
       <c r="Z11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.65</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="12"/>
-        <v>0.3</v>
-      </c>
-      <c r="AD11">
         <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
+      <c r="AD11">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
       <c r="AE11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.85</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.75</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5</v>
       </c>
       <c r="AJ11">
@@ -3196,27 +3223,27 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.35</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.45</v>
       </c>
       <c r="AO11" s="8">
-        <f t="shared" si="23"/>
+        <f>SUM(W11:AE11)</f>
         <v>9.3000000000000025</v>
       </c>
       <c r="AP11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.3000000000000025</v>
       </c>
       <c r="AQ11" s="9">
@@ -3224,14 +3251,14 @@
         <v>0.16265257788303883</v>
       </c>
       <c r="AR11" s="8">
-        <f>AQ11*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>8.6228147453063037E-2</v>
       </c>
       <c r="AS11" s="2">
         <v>10</v>
       </c>
       <c r="AT11" s="18">
-        <f>AR17</f>
+        <f t="shared" si="6"/>
         <v>0.82055817737592218</v>
       </c>
       <c r="AU11">
@@ -3246,7 +3273,7 @@
     </row>
     <row r="12" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="2">
         <v>5</v>
       </c>
@@ -3306,55 +3333,55 @@
       </c>
       <c r="V12" s="1"/>
       <c r="W12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="X12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.85</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.6</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="AD12">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
+      <c r="AD12">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
       <c r="AE12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AJ12">
@@ -3362,27 +3389,27 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.15</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.2</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.35</v>
       </c>
       <c r="AO12" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="AP12" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="AQ12" s="9">
@@ -3390,14 +3417,14 @@
         <v>0.17402076881034795</v>
       </c>
       <c r="AR12" s="8">
-        <f>AQ12*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>9.2254845930965265E-2</v>
       </c>
       <c r="AS12" s="2">
         <v>11</v>
       </c>
       <c r="AT12" s="18">
-        <f>AR18</f>
+        <f t="shared" si="6"/>
         <v>0.74452905811623216</v>
       </c>
       <c r="AU12">
@@ -3408,7 +3435,7 @@
     </row>
     <row r="13" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="2">
         <v>6</v>
       </c>
@@ -3468,55 +3495,55 @@
       </c>
       <c r="V13" s="1"/>
       <c r="W13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3</v>
       </c>
       <c r="X13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.8</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.75</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="12"/>
-        <v>0.15</v>
-      </c>
-      <c r="AD13">
         <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
+      <c r="AD13">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
       <c r="AE13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.2</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.75</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AJ13">
@@ -3524,27 +3551,27 @@
         <v>0.75</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.4</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.15</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.1</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="AO13" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19.399999999999999</v>
       </c>
       <c r="AP13" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>19.399999999999999</v>
       </c>
       <c r="AQ13" s="9">
@@ -3552,14 +3579,14 @@
         <v>0.33929677536891961</v>
       </c>
       <c r="AR13" s="8">
-        <f>AQ13*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.17987376995585186</v>
       </c>
       <c r="AS13" s="2">
         <v>12</v>
       </c>
       <c r="AT13" s="18">
-        <f>AR19</f>
+        <f t="shared" si="6"/>
         <v>0.67359945295322876</v>
       </c>
       <c r="AU13">
@@ -3568,7 +3595,7 @@
     </row>
     <row r="14" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="2">
         <v>7</v>
       </c>
@@ -3628,55 +3655,55 @@
       </c>
       <c r="V14" s="1"/>
       <c r="W14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.05</v>
       </c>
       <c r="X14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.8</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.15</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.35</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12.3</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.55</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.25</v>
       </c>
       <c r="AJ14">
@@ -3684,27 +3711,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.6</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.1</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
       <c r="AO14" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>44.300000000000004</v>
       </c>
       <c r="AP14" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>44.300000000000004</v>
       </c>
       <c r="AQ14" s="9">
@@ -3712,14 +3739,14 @@
         <v>0.7747859355073784</v>
       </c>
       <c r="AR14" s="8">
-        <f>AQ14*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.41074268087856902</v>
       </c>
       <c r="AS14" s="2">
         <v>13</v>
       </c>
       <c r="AT14" s="18">
-        <f>AR20</f>
+        <f t="shared" si="6"/>
         <v>0.63929363084824675</v>
       </c>
       <c r="AU14">
@@ -3728,7 +3755,7 @@
     </row>
     <row r="15" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="40"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="2">
         <v>8</v>
       </c>
@@ -3788,55 +3815,55 @@
       </c>
       <c r="V15" s="1"/>
       <c r="W15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.649999999999999</v>
       </c>
       <c r="X15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24.5</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.2</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="AE15">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
+      <c r="AE15">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
       <c r="AF15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.35</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.2</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.2</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="AJ15">
@@ -3844,27 +3871,27 @@
         <v>1.9</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.05</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.15</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
       <c r="AO15" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>73.949999999999974</v>
       </c>
       <c r="AP15" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>73.949999999999974</v>
       </c>
       <c r="AQ15" s="9">
@@ -3872,14 +3899,14 @@
         <v>1.2933503370377113</v>
       </c>
       <c r="AR15" s="8">
-        <f>AQ15*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.68565284990903308</v>
       </c>
       <c r="AS15" s="2">
         <v>14</v>
       </c>
       <c r="AT15" s="18">
-        <f>AR21</f>
+        <f t="shared" si="6"/>
         <v>0.63836644646703122</v>
       </c>
       <c r="AU15">
@@ -3888,7 +3915,7 @@
     </row>
     <row r="16" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="2">
         <v>9</v>
       </c>
@@ -3948,55 +3975,55 @@
       </c>
       <c r="V16" s="1"/>
       <c r="W16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.7</v>
       </c>
       <c r="X16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24.6</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.3</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.95</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.75</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15.65</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>23.1</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16.55</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13.3</v>
       </c>
       <c r="AJ16">
@@ -4004,27 +4031,27 @@
         <v>3.3</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.75</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.2</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.05</v>
       </c>
       <c r="AO16" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>89.649999999999991</v>
       </c>
       <c r="AP16" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>89.649999999999991</v>
       </c>
       <c r="AQ16" s="9">
@@ -4032,14 +4059,14 @@
         <v>1.5679358717434868</v>
       </c>
       <c r="AR16" s="8">
-        <f>AQ16*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.8312207977599031</v>
       </c>
       <c r="AS16" s="2">
         <v>15</v>
       </c>
       <c r="AT16" s="18">
-        <f>AR22</f>
+        <f t="shared" si="6"/>
         <v>0.66432760914107158</v>
       </c>
       <c r="AU16">
@@ -4048,7 +4075,7 @@
     </row>
     <row r="17" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="2">
         <v>10</v>
       </c>
@@ -4108,55 +4135,55 @@
       </c>
       <c r="V17" s="1"/>
       <c r="W17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.7</v>
       </c>
       <c r="X17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.65</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.4</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.55</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.25</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.899999999999999</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>26.35</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21.05</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16.899999999999999</v>
       </c>
       <c r="AJ17">
@@ -4164,27 +4191,27 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.9</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.4</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
       <c r="AO17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>88.5</v>
       </c>
       <c r="AP17" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>88.5</v>
       </c>
       <c r="AQ17" s="9">
@@ -4192,14 +4219,14 @@
         <v>1.5478229185644015</v>
       </c>
       <c r="AR17" s="8">
-        <f>AQ17*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.82055817737592218</v>
       </c>
       <c r="AS17" s="2">
         <v>16</v>
       </c>
       <c r="AT17" s="18">
-        <f>AR23</f>
+        <f t="shared" si="6"/>
         <v>0.71254119696428941</v>
       </c>
       <c r="AU17">
@@ -4208,7 +4235,7 @@
     </row>
     <row r="18" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="2">
         <v>11</v>
       </c>
@@ -4268,55 +4295,55 @@
       </c>
       <c r="V18" s="1"/>
       <c r="W18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.85</v>
       </c>
       <c r="X18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.95</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.75</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.85</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.6</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.75</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.7</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27.6</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19.3</v>
       </c>
       <c r="AJ18">
@@ -4324,27 +4351,27 @@
         <v>6.2</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.3</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.3</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.65</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
       <c r="AO18" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>80.299999999999983</v>
       </c>
       <c r="AP18" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>80.299999999999983</v>
       </c>
       <c r="AQ18" s="9">
@@ -4352,14 +4379,14 @@
         <v>1.4044088176352703</v>
       </c>
       <c r="AR18" s="8">
-        <f>AQ18*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.74452905811623216</v>
       </c>
       <c r="AS18" s="2">
         <v>17</v>
       </c>
       <c r="AT18" s="18">
-        <f>AR24</f>
+        <f t="shared" si="6"/>
         <v>0.78717953965215592</v>
       </c>
       <c r="AU18">
@@ -4368,7 +4395,7 @@
     </row>
     <row r="19" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="40"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="2">
         <v>12</v>
       </c>
@@ -4428,55 +4455,55 @@
       </c>
       <c r="V19" s="1"/>
       <c r="W19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.85</v>
       </c>
       <c r="X19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.45</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.25</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.85</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.75</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.350000000000001</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25.1</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20.2</v>
       </c>
       <c r="AJ19">
@@ -4484,27 +4511,27 @@
         <v>7.05</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.65</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.95</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
       <c r="AO19" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>72.649999999999991</v>
       </c>
       <c r="AP19" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>72.649999999999991</v>
       </c>
       <c r="AQ19" s="9">
@@ -4512,14 +4539,14 @@
         <v>1.2706139551830933</v>
       </c>
       <c r="AR19" s="8">
-        <f>AQ19*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.67359945295322876</v>
       </c>
       <c r="AS19" s="2">
         <v>18</v>
       </c>
       <c r="AT19" s="18">
-        <f>AR25</f>
+        <f t="shared" si="6"/>
         <v>0.86320865891184562</v>
       </c>
       <c r="AU19">
@@ -4528,7 +4555,7 @@
     </row>
     <row r="20" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="2">
         <v>13</v>
       </c>
@@ -4588,55 +4615,55 @@
       </c>
       <c r="V20" s="1"/>
       <c r="W20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.7</v>
       </c>
       <c r="X20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.25</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.9</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.8</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.55</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.65</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.899999999999999</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24.6</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19.8</v>
       </c>
       <c r="AJ20">
@@ -4644,27 +4671,27 @@
         <v>7.4</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.95</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.45</v>
       </c>
       <c r="AO20" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>68.95</v>
       </c>
       <c r="AP20" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>68.95</v>
       </c>
       <c r="AQ20" s="9">
@@ -4672,14 +4699,14 @@
         <v>1.205902714519949</v>
       </c>
       <c r="AR20" s="8">
-        <f>AQ20*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.63929363084824675</v>
       </c>
       <c r="AS20" s="2">
         <v>19</v>
       </c>
       <c r="AT20" s="18">
-        <f>AR26</f>
+        <f t="shared" si="6"/>
         <v>0.87711642463008177</v>
       </c>
       <c r="AU20">
@@ -4688,7 +4715,7 @@
     </row>
     <row r="21" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="2">
         <v>14</v>
       </c>
@@ -4748,55 +4775,55 @@
       </c>
       <c r="V21" s="1"/>
       <c r="W21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.1</v>
       </c>
       <c r="X21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.850000000000001</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.7</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.6</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.35</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.25</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>26.9</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24.05</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19.3</v>
       </c>
       <c r="AJ21">
@@ -4804,27 +4831,27 @@
         <v>7.25</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.85</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.95</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.65</v>
       </c>
       <c r="AO21" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>68.850000000000023</v>
       </c>
       <c r="AP21" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>68.850000000000023</v>
       </c>
       <c r="AQ21" s="9">
@@ -4832,14 +4859,14 @@
         <v>1.2041537620695941</v>
       </c>
       <c r="AR21" s="8">
-        <f>AQ21*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.63836644646703122</v>
       </c>
       <c r="AS21" s="2">
         <v>20</v>
       </c>
       <c r="AT21" s="18">
-        <f>AR27</f>
+        <f t="shared" si="6"/>
         <v>0.79227905374884255</v>
       </c>
       <c r="AU21">
@@ -4848,7 +4875,7 @@
     </row>
     <row r="22" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="2">
         <v>15</v>
       </c>
@@ -4908,55 +4935,55 @@
       </c>
       <c r="V22" s="1"/>
       <c r="W22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="X22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.149999999999999</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.25</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.05</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.25</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.350000000000001</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>28.55</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24.5</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19.7</v>
       </c>
       <c r="AJ22">
@@ -4964,27 +4991,27 @@
         <v>7.05</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.95</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
       <c r="AO22" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>71.650000000000006</v>
       </c>
       <c r="AP22" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>71.650000000000006</v>
       </c>
       <c r="AQ22" s="9">
@@ -4992,14 +5019,14 @@
         <v>1.253124430679541</v>
       </c>
       <c r="AR22" s="8">
-        <f>AQ22*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.66432760914107158</v>
       </c>
       <c r="AS22" s="2">
         <v>21</v>
       </c>
       <c r="AT22" s="18">
-        <f>AR28</f>
+        <f t="shared" si="6"/>
         <v>0.64763829027918829</v>
       </c>
       <c r="AU22">
@@ -5008,7 +5035,7 @@
     </row>
     <row r="23" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="2">
         <v>16</v>
       </c>
@@ -5068,83 +5095,83 @@
       </c>
       <c r="V23" s="1"/>
       <c r="W23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.2</v>
       </c>
       <c r="X23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20.9</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.45</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.8</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.25</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.8</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30.7</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20.9</v>
       </c>
       <c r="AJ23">
-        <f t="shared" ref="AJ23:AJ30" si="25">Q23*$D$5</f>
+        <f t="shared" ref="AJ23:AJ30" si="27">Q23*$D$5</f>
         <v>7.2</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.85</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.45</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95</v>
       </c>
       <c r="AO23" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>76.849999999999994</v>
       </c>
       <c r="AP23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>76.849999999999994</v>
       </c>
       <c r="AQ23" s="9">
@@ -5152,14 +5179,14 @@
         <v>1.344069958098014</v>
       </c>
       <c r="AR23" s="8">
-        <f>AQ23*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.71254119696428941</v>
       </c>
       <c r="AS23" s="2">
         <v>22</v>
       </c>
       <c r="AT23" s="18">
-        <f>AR29</f>
+        <f t="shared" si="6"/>
         <v>0.49743442052223991</v>
       </c>
       <c r="AU23">
@@ -5168,7 +5195,7 @@
     </row>
     <row r="24" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="2">
         <v>17</v>
       </c>
@@ -5228,83 +5255,83 @@
       </c>
       <c r="V24" s="1"/>
       <c r="W24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.100000000000001</v>
       </c>
       <c r="X24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23.7</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.05</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.3</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.15</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.75</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.25</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.7</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.55</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31.75</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.95</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22.45</v>
       </c>
       <c r="AJ24">
+        <f t="shared" si="27"/>
+        <v>7.65</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="20"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="21"/>
+        <v>1.9</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="22"/>
+        <v>1.4</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AO24" s="8">
+        <f t="shared" si="24"/>
+        <v>84.9</v>
+      </c>
+      <c r="AP24" s="9">
         <f t="shared" si="25"/>
-        <v>7.65</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="19"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AL24">
-        <f t="shared" si="20"/>
-        <v>1.9</v>
-      </c>
-      <c r="AM24">
-        <f t="shared" si="21"/>
-        <v>1.4</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AO24" s="8">
-        <f t="shared" si="23"/>
-        <v>84.9</v>
-      </c>
-      <c r="AP24" s="9">
-        <f t="shared" si="24"/>
         <v>84.9</v>
       </c>
       <c r="AQ24" s="9">
@@ -5312,14 +5339,14 @@
         <v>1.4848606303516123</v>
       </c>
       <c r="AR24" s="8">
-        <f>AQ24*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.78717953965215592</v>
       </c>
       <c r="AS24" s="11">
         <v>23</v>
       </c>
       <c r="AT24" s="18">
-        <f>AR30</f>
+        <f t="shared" si="6"/>
         <v>0.36855579153325324</v>
       </c>
       <c r="AU24">
@@ -5328,7 +5355,7 @@
     </row>
     <row r="25" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="2">
         <v>18</v>
       </c>
@@ -5388,83 +5415,83 @@
       </c>
       <c r="V25" s="1"/>
       <c r="W25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.25</v>
       </c>
       <c r="X25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25.4</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.6</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.350000000000001</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.35</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.2</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>29.75</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28.9</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23.25</v>
       </c>
       <c r="AJ25">
+        <f t="shared" si="27"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="20"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="21"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="22"/>
+        <v>1.45</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="23"/>
+        <v>0.95</v>
+      </c>
+      <c r="AO25" s="8">
+        <f t="shared" si="24"/>
+        <v>93.09999999999998</v>
+      </c>
+      <c r="AP25" s="9">
         <f t="shared" si="25"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="19"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AL25">
-        <f t="shared" si="20"/>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="AM25">
-        <f t="shared" si="21"/>
-        <v>1.45</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" si="22"/>
-        <v>0.95</v>
-      </c>
-      <c r="AO25" s="8">
-        <f t="shared" si="23"/>
-        <v>93.09999999999998</v>
-      </c>
-      <c r="AP25" s="9">
-        <f t="shared" si="24"/>
         <v>93.09999999999998</v>
       </c>
       <c r="AQ25" s="9">
@@ -5472,14 +5499,14 @@
         <v>1.6282747312807428</v>
       </c>
       <c r="AR25" s="8">
-        <f>AQ25*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.86320865891184562</v>
       </c>
       <c r="AS25" s="2">
         <v>0</v>
       </c>
       <c r="AT25" s="18">
-        <f>AR7</f>
+        <f t="shared" ref="AT25:AT30" si="28">AR7</f>
         <v>0.26888347055256212</v>
       </c>
       <c r="AU25">
@@ -5488,7 +5515,7 @@
     </row>
     <row r="26" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="2">
         <v>19</v>
       </c>
@@ -5548,83 +5575,83 @@
       </c>
       <c r="V26" s="1"/>
       <c r="W26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.149999999999999</v>
       </c>
       <c r="X26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23.8</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.15</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.600000000000001</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.35</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.05</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>25.05</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.1</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>21.8</v>
       </c>
       <c r="AJ26">
+        <f t="shared" si="27"/>
+        <v>8.5</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="20"/>
+        <v>4.55</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="21"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="22"/>
+        <v>1.55</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="23"/>
+        <v>0.95</v>
+      </c>
+      <c r="AO26" s="8">
+        <f t="shared" si="24"/>
+        <v>94.6</v>
+      </c>
+      <c r="AP26" s="9">
         <f t="shared" si="25"/>
-        <v>8.5</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" si="19"/>
-        <v>4.55</v>
-      </c>
-      <c r="AL26">
-        <f t="shared" si="20"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AM26">
-        <f t="shared" si="21"/>
-        <v>1.55</v>
-      </c>
-      <c r="AN26">
-        <f t="shared" si="22"/>
-        <v>0.95</v>
-      </c>
-      <c r="AO26" s="8">
-        <f t="shared" si="23"/>
-        <v>94.6</v>
-      </c>
-      <c r="AP26" s="9">
-        <f t="shared" si="24"/>
         <v>94.6</v>
       </c>
       <c r="AQ26" s="9">
@@ -5632,14 +5659,14 @@
         <v>1.654509018036072</v>
       </c>
       <c r="AR26" s="8">
-        <f>AQ26*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.87711642463008177</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="18">
-        <f>AR8</f>
+        <f t="shared" si="28"/>
         <v>0.19470872005530362</v>
       </c>
       <c r="AU26">
@@ -5648,7 +5675,7 @@
     </row>
     <row r="27" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="2">
         <v>20</v>
       </c>
@@ -5708,83 +5735,83 @@
       </c>
       <c r="V27" s="1"/>
       <c r="W27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.15</v>
       </c>
       <c r="X27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.350000000000001</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.65</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.399999999999999</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.65</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.65</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.5</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19.850000000000001</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.8</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18.350000000000001</v>
       </c>
       <c r="AJ27">
+        <f t="shared" si="27"/>
+        <v>7.95</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="20"/>
+        <v>4.25</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="21"/>
+        <v>2.25</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="22"/>
+        <v>1.65</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="23"/>
+        <v>0.95</v>
+      </c>
+      <c r="AO27" s="8">
+        <f t="shared" si="24"/>
+        <v>85.45</v>
+      </c>
+      <c r="AP27" s="9">
         <f t="shared" si="25"/>
-        <v>7.95</v>
-      </c>
-      <c r="AK27">
-        <f t="shared" si="19"/>
-        <v>4.25</v>
-      </c>
-      <c r="AL27">
-        <f t="shared" si="20"/>
-        <v>2.25</v>
-      </c>
-      <c r="AM27">
-        <f t="shared" si="21"/>
-        <v>1.65</v>
-      </c>
-      <c r="AN27">
-        <f t="shared" si="22"/>
-        <v>0.95</v>
-      </c>
-      <c r="AO27" s="8">
-        <f t="shared" si="23"/>
-        <v>85.45</v>
-      </c>
-      <c r="AP27" s="9">
-        <f t="shared" si="24"/>
         <v>85.45</v>
       </c>
       <c r="AQ27" s="9">
@@ -5792,14 +5819,14 @@
         <v>1.4944798688285663</v>
       </c>
       <c r="AR27" s="8">
-        <f>AQ27*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.79227905374884255</v>
       </c>
       <c r="AS27" s="2">
         <v>2</v>
       </c>
       <c r="AT27" s="18">
-        <f>AR9</f>
+        <f t="shared" si="28"/>
         <v>0.14139561813539903</v>
       </c>
       <c r="AU27">
@@ -5808,7 +5835,7 @@
     </row>
     <row r="28" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="2">
         <v>21</v>
       </c>
@@ -5868,83 +5895,83 @@
       </c>
       <c r="V28" s="1"/>
       <c r="W28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9</v>
       </c>
       <c r="X28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.6</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.649999999999999</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.2</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.35</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.25</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.7</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.65</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15.75</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.100000000000001</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14.55</v>
       </c>
       <c r="AJ28">
+        <f t="shared" si="27"/>
+        <v>6.7</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="20"/>
+        <v>3.6</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="21"/>
+        <v>2.15</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="22"/>
+        <v>1.7</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AO28" s="8">
+        <f t="shared" si="24"/>
+        <v>69.849999999999994</v>
+      </c>
+      <c r="AP28" s="9">
         <f t="shared" si="25"/>
-        <v>6.7</v>
-      </c>
-      <c r="AK28">
-        <f t="shared" si="19"/>
-        <v>3.6</v>
-      </c>
-      <c r="AL28">
-        <f t="shared" si="20"/>
-        <v>2.15</v>
-      </c>
-      <c r="AM28">
-        <f t="shared" si="21"/>
-        <v>1.7</v>
-      </c>
-      <c r="AN28">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AO28" s="8">
-        <f t="shared" si="23"/>
-        <v>69.849999999999994</v>
-      </c>
-      <c r="AP28" s="9">
-        <f t="shared" si="24"/>
         <v>69.849999999999994</v>
       </c>
       <c r="AQ28" s="9">
@@ -5952,14 +5979,14 @@
         <v>1.2216432865731461</v>
       </c>
       <c r="AR28" s="8">
-        <f>AQ28*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.64763829027918829</v>
       </c>
       <c r="AS28" s="2">
         <v>3</v>
       </c>
       <c r="AT28" s="18">
-        <f>AR10</f>
+        <f t="shared" si="28"/>
         <v>0.10569901945859339</v>
       </c>
       <c r="AU28">
@@ -5968,7 +5995,7 @@
     </row>
     <row r="29" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="2">
         <v>22</v>
       </c>
@@ -6028,83 +6055,83 @@
       </c>
       <c r="V29" s="1"/>
       <c r="W29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.25</v>
       </c>
       <c r="X29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.65</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.3</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.7</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.75</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.35</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.4</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12.35</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.35</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.5</v>
       </c>
       <c r="AJ29">
+        <f t="shared" si="27"/>
+        <v>5.3</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="20"/>
+        <v>2.85</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="21"/>
+        <v>1.8</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="22"/>
+        <v>1.6</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="23"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO29" s="8">
+        <f t="shared" si="24"/>
+        <v>53.650000000000006</v>
+      </c>
+      <c r="AP29" s="9">
         <f t="shared" si="25"/>
-        <v>5.3</v>
-      </c>
-      <c r="AK29">
-        <f t="shared" si="19"/>
-        <v>2.85</v>
-      </c>
-      <c r="AL29">
-        <f t="shared" si="20"/>
-        <v>1.8</v>
-      </c>
-      <c r="AM29">
-        <f t="shared" si="21"/>
-        <v>1.6</v>
-      </c>
-      <c r="AN29">
-        <f t="shared" si="22"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AO29" s="8">
-        <f t="shared" si="23"/>
-        <v>53.650000000000006</v>
-      </c>
-      <c r="AP29" s="9">
-        <f t="shared" si="24"/>
         <v>53.650000000000006</v>
       </c>
       <c r="AQ29" s="9">
@@ -6112,14 +6139,14 @@
         <v>0.93831298961559484</v>
       </c>
       <c r="AR29" s="8">
-        <f>AQ29*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.49743442052223991</v>
       </c>
       <c r="AS29" s="2">
         <v>4</v>
       </c>
       <c r="AT29" s="18">
-        <f>AR11</f>
+        <f t="shared" si="28"/>
         <v>8.6228147453063037E-2</v>
       </c>
       <c r="AU29">
@@ -6128,7 +6155,7 @@
     </row>
     <row r="30" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="41"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="11">
         <v>23</v>
       </c>
@@ -6188,83 +6215,83 @@
       </c>
       <c r="V30" s="1"/>
       <c r="W30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.15</v>
       </c>
       <c r="X30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.9</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.25</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.85</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.2</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.15</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.25</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.0500000000000007</v>
       </c>
       <c r="AJ30">
+        <f t="shared" si="27"/>
+        <v>4.2</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="20"/>
+        <v>2.25</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="21"/>
+        <v>1.4</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="22"/>
+        <v>1.35</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="23"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AO30" s="8">
+        <f t="shared" si="24"/>
+        <v>39.75</v>
+      </c>
+      <c r="AP30" s="9">
         <f t="shared" si="25"/>
-        <v>4.2</v>
-      </c>
-      <c r="AK30">
-        <f t="shared" si="19"/>
-        <v>2.25</v>
-      </c>
-      <c r="AL30">
-        <f t="shared" si="20"/>
-        <v>1.4</v>
-      </c>
-      <c r="AM30">
-        <f t="shared" si="21"/>
-        <v>1.35</v>
-      </c>
-      <c r="AN30">
-        <f t="shared" si="22"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AO30" s="8">
-        <f t="shared" si="23"/>
-        <v>39.75</v>
-      </c>
-      <c r="AP30" s="9">
-        <f t="shared" si="24"/>
         <v>39.75</v>
       </c>
       <c r="AQ30" s="9">
@@ -6272,14 +6299,14 @@
         <v>0.69520859901621423</v>
       </c>
       <c r="AR30" s="8">
-        <f>AQ30*($AW$7/SUM($AQ$7:$AQ$30))</f>
+        <f t="shared" si="26"/>
         <v>0.36855579153325324</v>
       </c>
       <c r="AS30" s="2">
         <v>5</v>
       </c>
       <c r="AT30" s="18">
-        <f>AR12</f>
+        <f t="shared" si="28"/>
         <v>9.2254845930965265E-2</v>
       </c>
       <c r="AU30">
@@ -6340,7 +6367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="41:44" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:44" x14ac:dyDescent="0.15">
       <c r="AO33">
         <f>AVERAGE(AO7:AO30)</f>
         <v>57.177083333333336</v>
@@ -6350,8 +6377,433 @@
         <v>12.723287671232873</v>
       </c>
     </row>
+    <row r="36" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>29</v>
+      </c>
+      <c r="X36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>3</v>
+      </c>
+      <c r="AC36">
+        <v>4</v>
+      </c>
+      <c r="AD36">
+        <v>5</v>
+      </c>
+      <c r="AE36">
+        <v>6</v>
+      </c>
+      <c r="AF36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>21.000000000000004</v>
+      </c>
+      <c r="X37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y37">
+        <v>29</v>
+      </c>
+      <c r="Z37">
+        <v>21.000000000000004</v>
+      </c>
+      <c r="AA37">
+        <v>15.249999999999998</v>
+      </c>
+      <c r="AB37">
+        <v>11.400000000000002</v>
+      </c>
+      <c r="AC37">
+        <v>9.3000000000000025</v>
+      </c>
+      <c r="AD37">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="AE37">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AF37">
+        <v>44.300000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>15.249999999999998</v>
+      </c>
+      <c r="X38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y38">
+        <v>8</v>
+      </c>
+      <c r="Z38">
+        <v>9</v>
+      </c>
+      <c r="AA38">
+        <v>10</v>
+      </c>
+      <c r="AB38">
+        <v>11</v>
+      </c>
+      <c r="AC38">
+        <v>12</v>
+      </c>
+      <c r="AD38">
+        <v>13</v>
+      </c>
+      <c r="AE38">
+        <v>14</v>
+      </c>
+      <c r="AF38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>11.400000000000002</v>
+      </c>
+      <c r="X39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y39">
+        <v>73.949999999999974</v>
+      </c>
+      <c r="Z39">
+        <v>89.649999999999991</v>
+      </c>
+      <c r="AA39">
+        <v>88.5</v>
+      </c>
+      <c r="AB39">
+        <v>80.299999999999983</v>
+      </c>
+      <c r="AC39">
+        <v>72.649999999999991</v>
+      </c>
+      <c r="AD39">
+        <v>68.95</v>
+      </c>
+      <c r="AE39">
+        <v>68.850000000000023</v>
+      </c>
+      <c r="AF39">
+        <v>71.650000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="V40">
+        <v>9.3000000000000025</v>
+      </c>
+      <c r="X40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y40">
+        <v>16</v>
+      </c>
+      <c r="Z40">
+        <v>17</v>
+      </c>
+      <c r="AA40">
+        <v>18</v>
+      </c>
+      <c r="AB40">
+        <v>19</v>
+      </c>
+      <c r="AC40">
+        <v>20</v>
+      </c>
+      <c r="AD40">
+        <v>21</v>
+      </c>
+      <c r="AE40">
+        <v>22</v>
+      </c>
+      <c r="AF40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="X41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y41">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="Z41">
+        <v>84.9</v>
+      </c>
+      <c r="AA41">
+        <v>93.09999999999998</v>
+      </c>
+      <c r="AB41">
+        <v>94.6</v>
+      </c>
+      <c r="AC41">
+        <v>85.45</v>
+      </c>
+      <c r="AD41">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="AE41">
+        <v>53.650000000000006</v>
+      </c>
+      <c r="AF41">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="42" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="V42">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="V43">
+        <v>44.300000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="V44">
+        <v>73.949999999999974</v>
+      </c>
+    </row>
+    <row r="45" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="V45">
+        <v>89.649999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="V46">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="V47">
+        <v>80.299999999999983</v>
+      </c>
+    </row>
+    <row r="48" spans="3:44" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="V48">
+        <v>72.649999999999991</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="V49">
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="V50">
+        <v>68.850000000000023</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="V51">
+        <v>71.650000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="V52">
+        <v>76.849999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="V53">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="V54">
+        <v>93.09999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="V55">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="V56">
+        <v>85.45</v>
+      </c>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="V57">
+        <v>69.849999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="V58">
+        <v>53.650000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.15">
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="V59">
+        <v>39.75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="AF2:AN2"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="B7:B30"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:U2"/>
@@ -6368,77 +6820,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="B7:B30"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="W2:AE2"/>
-    <mergeCell ref="AF2:AN2"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
